--- a/01_Input/00_CO Validation/Cabo Verde - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Cabo Verde - Energy Projects.xlsx
@@ -1082,8 +1082,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1107,6 +1107,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1182,6 +1183,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -1340,7 +1346,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192F818E-73F8-4DE1-AC85-AC0A374A0761}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{473F3DBB-9B4D-46F3-BA9F-66A79B3C3FDD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
